--- a/parabolic/2025/08/26/parabolic.xlsx
+++ b/parabolic/2025/08/26/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>155A</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>913</v>
+        <v>153</v>
       </c>
       <c r="D2" t="n">
-        <v>533900</v>
+        <v>605000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>145</v>
       </c>
       <c r="D3" t="n">
-        <v>103500</v>
+        <v>120700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D4" t="n">
-        <v>149400</v>
+        <v>221600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>6696</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>805</v>
+        <v>579</v>
       </c>
       <c r="D5" t="n">
-        <v>292700</v>
+        <v>121200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>7085</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,16 +574,62 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>527</v>
+        <v>805</v>
       </c>
       <c r="D6" t="n">
-        <v>634600</v>
+        <v>370700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>8127</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>417</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114900</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>9348</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>528</v>
+      </c>
+      <c r="D8" t="n">
+        <v>711100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/26/parabolic.xlsx
+++ b/parabolic/2025/08/26/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2778</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>153</v>
+        <v>897</v>
       </c>
       <c r="D2" t="n">
-        <v>605000</v>
+        <v>174200</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3940</t>
+          <t>2778</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>120700</v>
+        <v>663700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4167</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>400</v>
+        <v>146</v>
       </c>
       <c r="D4" t="n">
-        <v>221600</v>
+        <v>165600</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6696</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>579</v>
+        <v>394</v>
       </c>
       <c r="D5" t="n">
-        <v>121200</v>
+        <v>265600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>4884</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>805</v>
+        <v>492</v>
       </c>
       <c r="D6" t="n">
-        <v>370700</v>
+        <v>248300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8127</t>
+          <t>6696</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>417</v>
+        <v>580</v>
       </c>
       <c r="D7" t="n">
-        <v>114900</v>
+        <v>169700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>7085</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,62 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>528</v>
+        <v>803</v>
       </c>
       <c r="D8" t="n">
-        <v>711100</v>
+        <v>421700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8127</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>418</v>
+      </c>
+      <c r="D9" t="n">
+        <v>169200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9348</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>533</v>
+      </c>
+      <c r="D10" t="n">
+        <v>853400</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/26/parabolic.xlsx
+++ b/parabolic/2025/08/26/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D2" t="n">
-        <v>174200</v>
+        <v>211600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>149</v>
       </c>
       <c r="D3" t="n">
-        <v>663700</v>
+        <v>709600</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>146</v>
       </c>
       <c r="D4" t="n">
-        <v>165600</v>
+        <v>186100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D5" t="n">
-        <v>265600</v>
+        <v>289900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D6" t="n">
-        <v>248300</v>
+        <v>294700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D7" t="n">
-        <v>169700</v>
+        <v>195800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D8" t="n">
-        <v>421700</v>
+        <v>505100</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8127</t>
+          <t>7356</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="D9" t="n">
-        <v>169200</v>
+        <v>1432500</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>7803</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,85 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>533</v>
+        <v>725</v>
       </c>
       <c r="D10" t="n">
-        <v>853400</v>
+        <v>612600</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8127</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>414</v>
+      </c>
+      <c r="D11" t="n">
+        <v>231900</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8166</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>106</v>
+      </c>
+      <c r="D12" t="n">
+        <v>103600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>9348</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>530</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1041300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
